--- a/biology/Histoire de la zoologie et de la botanique/Règne_animal_(Cuvier)/Règne_animal_(Cuvier).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Règne_animal_(Cuvier)/Règne_animal_(Cuvier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A8gne_animal_(Cuvier)</t>
+          <t>Règne_animal_(Cuvier)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le règne animal distribué d'après son organisation est une collection d'ouvrages écrits au XIXe siècle par Cuvier pour servir de base à l'histoire naturelle des animaux et d'introduction à l'anatomie comparée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A8gne_animal_(Cuvier)</t>
+          <t>Règne_animal_(Cuvier)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Le règne animal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cuvier (1769-1832) transfère les concepts de la méthode de classification naturelle de Jussieu (1748-1836), exposée en 1789 dans Genera plantarum, de la botanique à la zoologie.
-En 1795, dans une perspective fixiste, Cuvier divisait les deux classes linnéennes des insectes et des vers en six classes d'animaux à sang blanc ou invertébrés : mollusques, crustacés, insectes, vers, échinodermes, zoophytes[1].
-Puis, il subdivisait les mollusques en trois ordres : céphalopodes, gastéropodes et acéphales[2].
+En 1795, dans une perspective fixiste, Cuvier divisait les deux classes linnéennes des insectes et des vers en six classes d'animaux à sang blanc ou invertébrés : mollusques, crustacés, insectes, vers, échinodermes, zoophytes.
+Puis, il subdivisait les mollusques en trois ordres : céphalopodes, gastéropodes et acéphales.
 Grâce à l'anatomie comparée et à la paléontologie, il divise le règne animal selon quatre « grandes formes principales » ou quatre « grands plans », qui donnent quatre embranchements naturels, rompant avec la notion de continuité du monde vivant.
-En fonction du système nerveux qui est l'organe principal d'un animal sous la dépendance duquel sont placés tous les autres systèmes organiques (comme le système circulatoire ou l'appareil digestif), Cuvier a distingué quatre modèles[3] :
+En fonction du système nerveux qui est l'organe principal d'un animal sous la dépendance duquel sont placés tous les autres systèmes organiques (comme le système circulatoire ou l'appareil digestif), Cuvier a distingué quatre modèles :
 I. avec un cerveau et une moelle épinière (entourés par des parties du squelette).
 II. avec des concentrations tissulaires entre les organes, reliées entre elles par des cordons nerveux.
 III. avec deux cordons nerveux longitudinaux ventraux reliés par un anneau avec deux ganglions nerveux situés au-dessous de l'œsophage.
@@ -556,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A8gne_animal_(Cuvier)</t>
+          <t>Règne_animal_(Cuvier)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,7 +588,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Georges Cuvier, Le règne animal distribué d'après son organisation : Pour servir de base à l'histoire naturelle des animaux et d'introduction à l'anatomie comparée, Déterville libraire, Imprimerie de A. Belin, Paris, 4 tomes, 1817.
 Tome I, contenant l'introduction, les mammifères, les oiseaux.
